--- a/TestData/T2276_T2277_RejectApproveEventExpenseFormAsFirstLevelApprover.xlsx
+++ b/TestData/T2276_T2277_RejectApproveEventExpenseFormAsFirstLevelApprover.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FAD94C-E058-4D2B-B28A-20EBBFD337CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>LOB</t>
   </si>
@@ -134,9 +135,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Bingo@123</t>
-  </si>
-  <si>
     <t>dmorello@hl.com.test</t>
   </si>
   <si>
@@ -149,13 +147,13 @@
     <t>Sonika Goyal</t>
   </si>
   <si>
-    <t>Bingo@12</t>
+    <t>Bingo#12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,10 +485,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -611,7 +609,7 @@
         <v>29</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>24</v>
@@ -627,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -658,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,31 +679,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="Bingo@12" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,15 +722,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
         <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="Bingo@12" xr:uid="{AB6A8F65-C0C9-4C30-BFF4-6189765EC6C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/T2276_T2277_RejectApproveEventExpenseFormAsFirstLevelApprover.xlsx
+++ b/TestData/T2276_T2277_RejectApproveEventExpenseFormAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FAD94C-E058-4D2B-B28A-20EBBFD337CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608D429-8EF5-4A04-882E-1AE919127E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <t>Sonika Goyal</t>
   </si>
   <si>
-    <t>Bingo#12345</t>
+    <t>Bingo@12345</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Bingo@12" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -703,7 +703,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="Bingo@12" xr:uid="{AB6A8F65-C0C9-4C30-BFF4-6189765EC6C5}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{AB6A8F65-C0C9-4C30-BFF4-6189765EC6C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/T2276_T2277_RejectApproveEventExpenseFormAsFirstLevelApprover.xlsx
+++ b/TestData/T2276_T2277_RejectApproveEventExpenseFormAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608D429-8EF5-4A04-882E-1AE919127E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD528E-C7D3-4EC8-8B84-AD279256436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>LOB</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ProductType</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>EventName</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>EventFormat</t>
   </si>
   <si>
-    <t>Test Houlihan</t>
-  </si>
-  <si>
     <t>NoOfGuest</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>TeamMember</t>
   </si>
   <si>
-    <t>2000.0</t>
-  </si>
-  <si>
     <t>2500.0</t>
   </si>
   <si>
@@ -135,19 +126,34 @@
     <t>Password</t>
   </si>
   <si>
-    <t>dmorello@hl.com.test</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>jmuller@hl.com.test</t>
-  </si>
-  <si>
     <t>Sonika Goyal</t>
   </si>
   <si>
-    <t>Bingo@12345</t>
+    <t>Alan Test</t>
+  </si>
+  <si>
+    <t>CAPE</t>
+  </si>
+  <si>
+    <t>kspero@hl.com.test</t>
+  </si>
+  <si>
+    <t>Bingo@1234</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>klulla@hl.com.test</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,93 +535,146 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -626,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,13 +699,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -660,39 +724,50 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="mailto:kspero@hl.com.test" display="mailto:kspero@hl.com.test" xr:uid="{3445B329-E5DB-4611-B1CE-B0681D950C43}"/>
+    <hyperlink ref="A3" r:id="rId3" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{C8EC5463-FDDF-464D-9CB8-5D48135FBF68}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{C4935759-DDDB-483C-B2B4-7E850AB10549}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -700,10 +775,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,24 +789,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{AB6A8F65-C0C9-4C30-BFF4-6189765EC6C5}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B417F8DC-9DC0-418C-877E-78A8508EF3A7}"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="mailto:kspero@hl.com.test" display="mailto:kspero@hl.com.test" xr:uid="{BF9A316F-3890-4091-A712-BAB45FA8B7A3}"/>
+    <hyperlink ref="A3" r:id="rId3" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{102C98B0-E08F-485E-82F8-4D662884A9CD}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{D92467C4-C6AA-4153-A927-AF0E2ABA33B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/T2276_T2277_RejectApproveEventExpenseFormAsFirstLevelApprover.xlsx
+++ b/TestData/T2276_T2277_RejectApproveEventExpenseFormAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD528E-C7D3-4EC8-8B84-AD279256436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4890CA87-5DC3-45D3-8614-9ED7C77F162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>kspero@hl.com.test</t>
   </si>
   <si>
-    <t>Bingo@1234</t>
-  </si>
-  <si>
     <t>TECH</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>1000.0</t>
+  </si>
+  <si>
+    <t>Bingo@123456</t>
   </si>
 </sst>
 </file>
@@ -603,10 +603,10 @@
         <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>16</v>
@@ -638,7 +638,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -656,10 +656,10 @@
         <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>16</v>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,14 +723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,15 +746,15 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
@@ -778,13 +778,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,15 +800,15 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
